--- a/Web.xlsx
+++ b/Web.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cordova" sheetId="1" r:id="rId1"/>
     <sheet name="Node.js" sheetId="2" r:id="rId2"/>
     <sheet name="WebGL" sheetId="3" r:id="rId3"/>
     <sheet name="前段三大框架" sheetId="4" r:id="rId4"/>
+    <sheet name="css" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <r>
       <t>Cordova</t>
@@ -62,6 +63,10 @@
   </si>
   <si>
     <t>JQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css文档流：可以分成文档和流。文档指内容，流指显示规则。可以使用浮动脱离文档流，亦可以使用绝对定位脱离文档流。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B7:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -529,4 +534,25 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Web.xlsx
+++ b/Web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cordova" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
       <t>Cordova</t>
@@ -69,12 +69,52 @@
     <t>css文档流：可以分成文档和流。文档指内容，流指显示规则。可以使用浮动脱离文档流，亦可以使用绝对定位脱离文档流。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>events模块是node的核心模块，计划所有常用的node模块都继承了events模块，比如http/fs等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeJS的事件机制EventEmitter：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    多数Node.js核心API都采用管用的一部事件驱动架构，其中某些类型的对象（成为触发器）会周期性触发命名时间来调用函数对象（监听器）。
+例如： 一个net.server对象会在每次有新连接时触发一个事件；
+       一个fs.ReadSream会在文件被打开时触发一个事件；一个stream会在数据可读时触发事件。
+EventEmitter类由events模块定义和开放的，所有能触发事件的对象都是EventEmitter类的实例：
+    var EventEmitter=require('events');
+    /*
+      {[Function:EventEmitter]
+       EventEmitter:[Circular],
+       usingDomains:false,
+       defaultMaxListeners:[Getter/Setter],
+       init:[Function],
+       listenerCount:[Function]}
+    */
+    console.log(EventEmitter);
+    events模块的EventEmitter属性指向该模块本身
+    var events= require('events');
+    console.log(events.EventEmitter===events);
+    //true      EventEmitter是一个构造函数，可以用来生成事件发生器的实例emitter
+    var EventEmitter=require（‘events');
+    var emitter=new EventEmitter();
+    /*
+      EventEmitter{
+         domain:null,
+         _events:{},
+         _eventsCount:0,
+         _maxListeners:undefined
+      }
+    */
+    console.log(emitter);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +142,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,12 +174,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,20 +521,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B6"/>
+  <dimension ref="B6:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="6" max="6" width="5.125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.875" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="124.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:12" ht="18" customHeight="1">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="2:12" ht="18" customHeight="1">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="409.5" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="18" customHeight="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" ht="18" customHeight="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" ht="18" customHeight="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:12" ht="18" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:11" ht="18" customHeight="1">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:11" ht="18" customHeight="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11" ht="18" customHeight="1">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" ht="18" customHeight="1">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" ht="18" customHeight="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" ht="18" customHeight="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11" ht="18" customHeight="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:11" ht="18" customHeight="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" ht="18" customHeight="1">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="2:11" ht="18" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:11" ht="18" customHeight="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:11" ht="18" customHeight="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="2:11" ht="18" customHeight="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="2:11" ht="18" customHeight="1">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K30"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -540,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
